--- a/Data/SSC/SSC_grab_samples.xlsx
+++ b/Data/SSC/SSC_grab_samples.xlsx
@@ -24881,7 +24881,7 @@
   <dimension ref="A1:R521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>

--- a/Data/SSC/SSC_grab_samples.xlsx
+++ b/Data/SSC/SSC_grab_samples.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grab_raw_input" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="99">
   <si>
     <t>Date Collected</t>
   </si>
@@ -354,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +385,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -603,11 +609,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -897,6 +916,10 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,13 +1285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R605"/>
+  <dimension ref="A1:R665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H580" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A376" sqref="A376"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="B630" sqref="B630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23849,18 +23872,18 @@
       <c r="L579" s="61">
         <v>1345</v>
       </c>
-      <c r="N579" s="61">
+      <c r="N579" s="145">
         <v>203</v>
       </c>
-      <c r="O579">
+      <c r="O579" s="146">
         <f>N579-H579</f>
         <v>74</v>
       </c>
-      <c r="P579">
+      <c r="P579" s="146">
         <f>I579/1000</f>
         <v>0.51</v>
       </c>
-      <c r="Q579" s="121">
+      <c r="Q579" s="147">
         <f>O579/P579</f>
         <v>145.09803921568627</v>
       </c>
@@ -23887,19 +23910,19 @@
       <c r="I580" s="61">
         <v>510</v>
       </c>
-      <c r="N580" s="61">
+      <c r="N580" s="145">
         <v>228</v>
       </c>
-      <c r="O580">
-        <f t="shared" ref="O580:O605" si="82">N580-H580</f>
+      <c r="O580" s="146">
+        <f t="shared" ref="O580:O643" si="82">N580-H580</f>
         <v>100</v>
       </c>
-      <c r="P580">
-        <f t="shared" ref="P580:P605" si="83">I580/1000</f>
+      <c r="P580" s="146">
+        <f t="shared" ref="P580:P643" si="83">I580/1000</f>
         <v>0.51</v>
       </c>
-      <c r="Q580" s="121">
-        <f t="shared" ref="Q580:Q605" si="84">O580/P580</f>
+      <c r="Q580" s="147">
+        <f t="shared" ref="Q580:Q643" si="84">O580/P580</f>
         <v>196.07843137254901</v>
       </c>
     </row>
@@ -23925,18 +23948,18 @@
       <c r="I581" s="61">
         <v>510</v>
       </c>
-      <c r="N581" s="61">
+      <c r="N581" s="145">
         <v>227</v>
       </c>
-      <c r="O581">
+      <c r="O581" s="146">
         <f t="shared" si="82"/>
         <v>99</v>
       </c>
-      <c r="P581">
+      <c r="P581" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q581" s="121">
+      <c r="Q581" s="147">
         <f t="shared" si="84"/>
         <v>194.11764705882354</v>
       </c>
@@ -23963,18 +23986,18 @@
       <c r="I582" s="61">
         <v>500</v>
       </c>
-      <c r="N582" s="61">
+      <c r="N582" s="145">
         <v>152</v>
       </c>
-      <c r="O582">
+      <c r="O582" s="146">
         <f t="shared" si="82"/>
         <v>24</v>
       </c>
-      <c r="P582">
+      <c r="P582" s="146">
         <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
-      <c r="Q582" s="121">
+      <c r="Q582" s="147">
         <f t="shared" si="84"/>
         <v>48</v>
       </c>
@@ -24001,18 +24024,18 @@
       <c r="I583" s="61">
         <v>500</v>
       </c>
-      <c r="N583" s="61">
+      <c r="N583" s="145">
         <v>137</v>
       </c>
-      <c r="O583">
+      <c r="O583" s="146">
         <f t="shared" si="82"/>
         <v>9</v>
       </c>
-      <c r="P583">
+      <c r="P583" s="146">
         <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
-      <c r="Q583" s="121">
+      <c r="Q583" s="147">
         <f t="shared" si="84"/>
         <v>18</v>
       </c>
@@ -24039,18 +24062,18 @@
       <c r="I584" s="61">
         <v>510</v>
       </c>
-      <c r="N584" s="61">
+      <c r="N584" s="145">
         <v>133</v>
       </c>
-      <c r="O584">
+      <c r="O584" s="146">
         <f t="shared" si="82"/>
         <v>4</v>
       </c>
-      <c r="P584">
+      <c r="P584" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q584" s="121">
+      <c r="Q584" s="147">
         <f t="shared" si="84"/>
         <v>7.8431372549019605</v>
       </c>
@@ -24077,18 +24100,18 @@
       <c r="I585" s="61">
         <v>550</v>
       </c>
-      <c r="N585" s="61">
+      <c r="N585" s="145">
         <v>133</v>
       </c>
-      <c r="O585">
+      <c r="O585" s="146">
         <f t="shared" si="82"/>
         <v>4</v>
       </c>
-      <c r="P585">
+      <c r="P585" s="146">
         <f t="shared" si="83"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q585" s="121">
+      <c r="Q585" s="147">
         <f t="shared" si="84"/>
         <v>7.2727272727272725</v>
       </c>
@@ -24115,18 +24138,18 @@
       <c r="I586" s="61">
         <v>500</v>
       </c>
-      <c r="N586" s="61">
+      <c r="N586" s="145">
         <v>129</v>
       </c>
-      <c r="O586">
+      <c r="O586" s="146">
         <f t="shared" si="82"/>
         <v>1</v>
       </c>
-      <c r="P586">
+      <c r="P586" s="146">
         <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
-      <c r="Q586" s="121">
+      <c r="Q586" s="147">
         <f t="shared" si="84"/>
         <v>2</v>
       </c>
@@ -24153,18 +24176,18 @@
       <c r="I587" s="61">
         <v>525</v>
       </c>
-      <c r="N587" s="61">
+      <c r="N587" s="145">
         <v>132</v>
       </c>
-      <c r="O587">
+      <c r="O587" s="146">
         <f t="shared" si="82"/>
         <v>4</v>
       </c>
-      <c r="P587">
+      <c r="P587" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q587" s="121">
+      <c r="Q587" s="147">
         <f t="shared" si="84"/>
         <v>7.6190476190476186</v>
       </c>
@@ -24191,18 +24214,18 @@
       <c r="I588" s="61">
         <v>510</v>
       </c>
-      <c r="N588" s="61">
+      <c r="N588" s="145">
         <v>130</v>
       </c>
-      <c r="O588">
+      <c r="O588" s="146">
         <f t="shared" si="82"/>
         <v>4</v>
       </c>
-      <c r="P588">
+      <c r="P588" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q588" s="121">
+      <c r="Q588" s="147">
         <f t="shared" si="84"/>
         <v>7.8431372549019605</v>
       </c>
@@ -24229,18 +24252,18 @@
       <c r="I589" s="61">
         <v>525</v>
       </c>
-      <c r="N589" s="61">
+      <c r="N589" s="145">
         <v>152</v>
       </c>
-      <c r="O589">
+      <c r="O589" s="146">
         <f t="shared" si="82"/>
         <v>25</v>
       </c>
-      <c r="P589">
+      <c r="P589" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q589" s="121">
+      <c r="Q589" s="147">
         <f t="shared" si="84"/>
         <v>47.61904761904762</v>
       </c>
@@ -24270,18 +24293,18 @@
       <c r="I590" s="61">
         <v>550</v>
       </c>
-      <c r="N590" s="61">
+      <c r="N590" s="145">
         <v>142</v>
       </c>
-      <c r="O590">
+      <c r="O590" s="146">
         <f t="shared" si="82"/>
         <v>15</v>
       </c>
-      <c r="P590">
+      <c r="P590" s="146">
         <f t="shared" si="83"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q590" s="121">
+      <c r="Q590" s="147">
         <f t="shared" si="84"/>
         <v>27.27272727272727</v>
       </c>
@@ -24311,18 +24334,18 @@
       <c r="I591" s="61">
         <v>550</v>
       </c>
-      <c r="N591" s="61">
+      <c r="N591" s="145">
         <v>137</v>
       </c>
-      <c r="O591">
+      <c r="O591" s="146">
         <f t="shared" si="82"/>
         <v>8</v>
       </c>
-      <c r="P591">
+      <c r="P591" s="146">
         <f t="shared" si="83"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q591" s="121">
+      <c r="Q591" s="147">
         <f t="shared" si="84"/>
         <v>14.545454545454545</v>
       </c>
@@ -24349,18 +24372,18 @@
       <c r="I592" s="61">
         <v>500</v>
       </c>
-      <c r="N592" s="61">
+      <c r="N592" s="145">
         <v>137</v>
       </c>
-      <c r="O592">
+      <c r="O592" s="146">
         <f t="shared" si="82"/>
         <v>7</v>
       </c>
-      <c r="P592">
+      <c r="P592" s="146">
         <f t="shared" si="83"/>
         <v>0.5</v>
       </c>
-      <c r="Q592" s="121">
+      <c r="Q592" s="147">
         <f t="shared" si="84"/>
         <v>14</v>
       </c>
@@ -24387,18 +24410,18 @@
       <c r="I593" s="61">
         <v>510</v>
       </c>
-      <c r="N593" s="61">
+      <c r="N593" s="145">
         <v>140</v>
       </c>
-      <c r="O593">
+      <c r="O593" s="146">
         <f t="shared" si="82"/>
         <v>10</v>
       </c>
-      <c r="P593">
+      <c r="P593" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q593" s="121">
+      <c r="Q593" s="147">
         <f t="shared" si="84"/>
         <v>19.607843137254903</v>
       </c>
@@ -24425,18 +24448,18 @@
       <c r="I594" s="61">
         <v>510</v>
       </c>
-      <c r="N594" s="61">
+      <c r="N594" s="145">
         <v>133</v>
       </c>
-      <c r="O594">
+      <c r="O594" s="146">
         <f t="shared" si="82"/>
         <v>4</v>
       </c>
-      <c r="P594">
+      <c r="P594" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q594" s="121">
+      <c r="Q594" s="147">
         <f t="shared" si="84"/>
         <v>7.8431372549019605</v>
       </c>
@@ -24463,18 +24486,18 @@
       <c r="I595" s="61">
         <v>525</v>
       </c>
-      <c r="N595" s="61">
+      <c r="N595" s="145">
         <v>134</v>
       </c>
-      <c r="O595">
+      <c r="O595" s="146">
         <f t="shared" si="82"/>
         <v>5</v>
       </c>
-      <c r="P595">
+      <c r="P595" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q595" s="121">
+      <c r="Q595" s="147">
         <f t="shared" si="84"/>
         <v>9.5238095238095237</v>
       </c>
@@ -24501,18 +24524,18 @@
       <c r="I596" s="61">
         <v>510</v>
       </c>
-      <c r="N596" s="61">
+      <c r="N596" s="145">
         <v>138</v>
       </c>
-      <c r="O596">
+      <c r="O596" s="146">
         <f t="shared" si="82"/>
         <v>9</v>
       </c>
-      <c r="P596">
+      <c r="P596" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q596" s="121">
+      <c r="Q596" s="147">
         <f t="shared" si="84"/>
         <v>17.647058823529413</v>
       </c>
@@ -24539,18 +24562,18 @@
       <c r="I597" s="61">
         <v>510</v>
       </c>
-      <c r="N597" s="61">
+      <c r="N597" s="145">
         <v>131</v>
       </c>
-      <c r="O597">
+      <c r="O597" s="146">
         <f t="shared" si="82"/>
         <v>5</v>
       </c>
-      <c r="P597">
+      <c r="P597" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q597" s="121">
+      <c r="Q597" s="147">
         <f t="shared" si="84"/>
         <v>9.8039215686274517</v>
       </c>
@@ -24577,18 +24600,18 @@
       <c r="I598" s="61">
         <v>510</v>
       </c>
-      <c r="N598" s="61">
+      <c r="N598" s="145">
         <v>137</v>
       </c>
-      <c r="O598">
+      <c r="O598" s="146">
         <f t="shared" si="82"/>
         <v>8</v>
       </c>
-      <c r="P598">
+      <c r="P598" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q598" s="121">
+      <c r="Q598" s="147">
         <f t="shared" si="84"/>
         <v>15.686274509803921</v>
       </c>
@@ -24615,18 +24638,18 @@
       <c r="I599" s="61">
         <v>510</v>
       </c>
-      <c r="N599" s="61">
+      <c r="N599" s="145">
         <v>230</v>
       </c>
-      <c r="O599">
+      <c r="O599" s="146">
         <f t="shared" si="82"/>
         <v>103</v>
       </c>
-      <c r="P599">
+      <c r="P599" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q599" s="121">
+      <c r="Q599" s="147">
         <f t="shared" si="84"/>
         <v>201.9607843137255</v>
       </c>
@@ -24653,18 +24676,18 @@
       <c r="I600" s="61">
         <v>525</v>
       </c>
-      <c r="N600" s="61">
+      <c r="N600" s="145">
         <v>183</v>
       </c>
-      <c r="O600">
+      <c r="O600" s="146">
         <f t="shared" si="82"/>
         <v>53</v>
       </c>
-      <c r="P600">
+      <c r="P600" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q600" s="121">
+      <c r="Q600" s="147">
         <f t="shared" si="84"/>
         <v>100.95238095238095</v>
       </c>
@@ -24691,18 +24714,18 @@
       <c r="I601" s="61">
         <v>510</v>
       </c>
-      <c r="N601" s="61">
+      <c r="N601" s="145">
         <v>167</v>
       </c>
-      <c r="O601">
+      <c r="O601" s="146">
         <f t="shared" si="82"/>
         <v>37</v>
       </c>
-      <c r="P601">
+      <c r="P601" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q601" s="121">
+      <c r="Q601" s="147">
         <f t="shared" si="84"/>
         <v>72.549019607843135</v>
       </c>
@@ -24729,18 +24752,18 @@
       <c r="I602" s="61">
         <v>510</v>
       </c>
-      <c r="N602" s="61">
+      <c r="N602" s="145">
         <v>167</v>
       </c>
-      <c r="O602">
+      <c r="O602" s="146">
         <f t="shared" si="82"/>
         <v>38</v>
       </c>
-      <c r="P602">
+      <c r="P602" s="146">
         <f t="shared" si="83"/>
         <v>0.51</v>
       </c>
-      <c r="Q602" s="121">
+      <c r="Q602" s="147">
         <f t="shared" si="84"/>
         <v>74.509803921568633</v>
       </c>
@@ -24767,18 +24790,18 @@
       <c r="I603" s="61">
         <v>525</v>
       </c>
-      <c r="N603" s="61">
+      <c r="N603" s="145">
         <v>149</v>
       </c>
-      <c r="O603">
+      <c r="O603" s="146">
         <f t="shared" si="82"/>
         <v>20</v>
       </c>
-      <c r="P603">
+      <c r="P603" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q603" s="121">
+      <c r="Q603" s="147">
         <f t="shared" si="84"/>
         <v>38.095238095238095</v>
       </c>
@@ -24805,18 +24828,18 @@
       <c r="I604" s="61">
         <v>525</v>
       </c>
-      <c r="N604" s="61">
+      <c r="N604" s="145">
         <v>144</v>
       </c>
-      <c r="O604">
+      <c r="O604" s="146">
         <f t="shared" si="82"/>
         <v>14</v>
       </c>
-      <c r="P604">
+      <c r="P604" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q604" s="121">
+      <c r="Q604" s="147">
         <f t="shared" si="84"/>
         <v>26.666666666666664</v>
       </c>
@@ -24852,20 +24875,2327 @@
       <c r="L605" s="61">
         <v>1345</v>
       </c>
-      <c r="N605" s="61">
+      <c r="N605" s="145">
         <v>143</v>
       </c>
-      <c r="O605">
+      <c r="O605" s="146">
         <f t="shared" si="82"/>
         <v>15</v>
       </c>
-      <c r="P605">
+      <c r="P605" s="146">
         <f t="shared" si="83"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q605" s="121">
+      <c r="Q605" s="147">
         <f t="shared" si="84"/>
         <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A606" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B606" s="82">
+        <v>2035</v>
+      </c>
+      <c r="C606" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D606" s="68">
+        <v>1</v>
+      </c>
+      <c r="E606" s="60">
+        <v>41967</v>
+      </c>
+      <c r="F606" s="62">
+        <v>1500</v>
+      </c>
+      <c r="H606" s="61">
+        <v>133</v>
+      </c>
+      <c r="I606" s="61">
+        <v>420</v>
+      </c>
+      <c r="K606" s="82">
+        <v>1600</v>
+      </c>
+      <c r="L606" s="61">
+        <v>1800</v>
+      </c>
+      <c r="N606" s="145">
+        <v>146</v>
+      </c>
+      <c r="O606" s="146">
+        <f t="shared" si="82"/>
+        <v>13</v>
+      </c>
+      <c r="P606" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q606" s="147">
+        <f t="shared" si="84"/>
+        <v>30.952380952380953</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A607" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B607" s="82">
+        <v>2105</v>
+      </c>
+      <c r="C607" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D607" s="68">
+        <v>2</v>
+      </c>
+      <c r="E607" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H607" s="61">
+        <v>129</v>
+      </c>
+      <c r="I607" s="61">
+        <v>410</v>
+      </c>
+      <c r="N607" s="145">
+        <v>211</v>
+      </c>
+      <c r="O607" s="146">
+        <f t="shared" si="82"/>
+        <v>82</v>
+      </c>
+      <c r="P607" s="146">
+        <f t="shared" si="83"/>
+        <v>0.41</v>
+      </c>
+      <c r="Q607" s="147">
+        <f t="shared" si="84"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A608" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B608" s="82">
+        <v>2135</v>
+      </c>
+      <c r="C608" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D608" s="68">
+        <v>3</v>
+      </c>
+      <c r="E608" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H608" s="61">
+        <v>129</v>
+      </c>
+      <c r="I608" s="61">
+        <v>420</v>
+      </c>
+      <c r="N608" s="145">
+        <v>155</v>
+      </c>
+      <c r="O608" s="146">
+        <f t="shared" si="82"/>
+        <v>26</v>
+      </c>
+      <c r="P608" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q608" s="147">
+        <f t="shared" si="84"/>
+        <v>61.904761904761905</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A609" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B609" s="82">
+        <v>2205</v>
+      </c>
+      <c r="C609" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D609" s="68">
+        <v>4</v>
+      </c>
+      <c r="E609" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H609" s="61">
+        <v>128</v>
+      </c>
+      <c r="I609" s="61">
+        <v>420</v>
+      </c>
+      <c r="N609" s="145">
+        <v>143</v>
+      </c>
+      <c r="O609" s="146">
+        <f t="shared" si="82"/>
+        <v>15</v>
+      </c>
+      <c r="P609" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q609" s="147">
+        <f t="shared" si="84"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A610" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B610" s="82">
+        <v>2235</v>
+      </c>
+      <c r="C610" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D610" s="68">
+        <v>5</v>
+      </c>
+      <c r="E610" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H610" s="61">
+        <v>128</v>
+      </c>
+      <c r="I610" s="61">
+        <v>400</v>
+      </c>
+      <c r="N610" s="145">
+        <v>140</v>
+      </c>
+      <c r="O610" s="146">
+        <f t="shared" si="82"/>
+        <v>12</v>
+      </c>
+      <c r="P610" s="146">
+        <f t="shared" si="83"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q610" s="147">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A611" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B611" s="82">
+        <v>2305</v>
+      </c>
+      <c r="C611" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D611" s="68">
+        <v>6</v>
+      </c>
+      <c r="E611" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H611" s="61">
+        <v>128</v>
+      </c>
+      <c r="I611" s="61">
+        <v>420</v>
+      </c>
+      <c r="N611" s="145">
+        <v>135</v>
+      </c>
+      <c r="O611" s="146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="P611" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q611" s="147">
+        <f t="shared" si="84"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A612" s="108">
+        <v>41965</v>
+      </c>
+      <c r="B612" s="82">
+        <v>2335</v>
+      </c>
+      <c r="C612" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D612" s="68">
+        <v>7</v>
+      </c>
+      <c r="E612" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H612" s="61">
+        <v>128</v>
+      </c>
+      <c r="I612" s="61">
+        <v>420</v>
+      </c>
+      <c r="N612" s="145">
+        <v>136</v>
+      </c>
+      <c r="O612" s="146">
+        <f t="shared" si="82"/>
+        <v>8</v>
+      </c>
+      <c r="P612" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q612" s="147">
+        <f t="shared" si="84"/>
+        <v>19.047619047619047</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A613" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B613" s="82">
+        <v>5</v>
+      </c>
+      <c r="C613" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D613" s="68">
+        <v>8</v>
+      </c>
+      <c r="E613" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H613" s="61">
+        <v>131</v>
+      </c>
+      <c r="I613" s="61">
+        <v>420</v>
+      </c>
+      <c r="N613" s="145">
+        <v>138</v>
+      </c>
+      <c r="O613" s="146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="P613" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q613" s="147">
+        <f t="shared" si="84"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A614" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B614" s="82">
+        <v>35</v>
+      </c>
+      <c r="C614" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D614" s="68">
+        <v>9</v>
+      </c>
+      <c r="E614" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H614" s="61">
+        <v>130</v>
+      </c>
+      <c r="I614" s="61">
+        <v>420</v>
+      </c>
+      <c r="N614" s="145">
+        <v>141</v>
+      </c>
+      <c r="O614" s="146">
+        <f t="shared" si="82"/>
+        <v>11</v>
+      </c>
+      <c r="P614" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q614" s="147">
+        <f t="shared" si="84"/>
+        <v>26.19047619047619</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A615" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B615" s="82">
+        <v>105</v>
+      </c>
+      <c r="C615" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D615" s="68">
+        <v>10</v>
+      </c>
+      <c r="E615" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H615" s="61">
+        <v>130</v>
+      </c>
+      <c r="I615" s="61">
+        <v>420</v>
+      </c>
+      <c r="N615" s="145">
+        <v>150</v>
+      </c>
+      <c r="O615" s="146">
+        <f t="shared" si="82"/>
+        <v>20</v>
+      </c>
+      <c r="P615" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q615" s="147">
+        <f t="shared" si="84"/>
+        <v>47.61904761904762</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A616" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B616" s="82">
+        <v>135</v>
+      </c>
+      <c r="C616" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D616" s="68">
+        <v>11</v>
+      </c>
+      <c r="E616" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H616" s="61">
+        <v>130</v>
+      </c>
+      <c r="I616" s="61">
+        <v>420</v>
+      </c>
+      <c r="N616" s="145">
+        <v>139</v>
+      </c>
+      <c r="O616" s="146">
+        <f t="shared" si="82"/>
+        <v>9</v>
+      </c>
+      <c r="P616" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q616" s="147">
+        <f t="shared" si="84"/>
+        <v>21.428571428571431</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A617" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B617" s="82">
+        <v>205</v>
+      </c>
+      <c r="C617" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D617" s="68">
+        <v>12</v>
+      </c>
+      <c r="E617" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H617" s="61">
+        <v>131</v>
+      </c>
+      <c r="I617" s="61">
+        <v>420</v>
+      </c>
+      <c r="K617" s="61">
+        <v>1620</v>
+      </c>
+      <c r="N617" s="145">
+        <v>138</v>
+      </c>
+      <c r="O617" s="146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="P617" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q617" s="147">
+        <f t="shared" si="84"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A618" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B618" s="82">
+        <v>235</v>
+      </c>
+      <c r="C618" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D618" s="68">
+        <v>13</v>
+      </c>
+      <c r="E618" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H618" s="61">
+        <v>129</v>
+      </c>
+      <c r="I618" s="61">
+        <v>420</v>
+      </c>
+      <c r="N618" s="145">
+        <v>141</v>
+      </c>
+      <c r="O618" s="146">
+        <f t="shared" si="82"/>
+        <v>12</v>
+      </c>
+      <c r="P618" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q618" s="147">
+        <f t="shared" si="84"/>
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A619" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B619" s="82">
+        <v>305</v>
+      </c>
+      <c r="C619" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D619" s="68">
+        <v>14</v>
+      </c>
+      <c r="E619" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H619" s="61">
+        <v>129</v>
+      </c>
+      <c r="I619" s="61">
+        <v>420</v>
+      </c>
+      <c r="N619" s="145">
+        <v>143</v>
+      </c>
+      <c r="O619" s="146">
+        <f t="shared" si="82"/>
+        <v>14</v>
+      </c>
+      <c r="P619" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q619" s="147">
+        <f t="shared" si="84"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A620" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B620" s="82">
+        <v>335</v>
+      </c>
+      <c r="C620" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D620" s="68">
+        <v>15</v>
+      </c>
+      <c r="E620" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H620" s="61">
+        <v>129</v>
+      </c>
+      <c r="I620" s="61">
+        <v>420</v>
+      </c>
+      <c r="N620" s="145">
+        <v>139</v>
+      </c>
+      <c r="O620" s="146">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="P620" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q620" s="147">
+        <f t="shared" si="84"/>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A621" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B621" s="82">
+        <v>405</v>
+      </c>
+      <c r="C621" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D621" s="68">
+        <v>16</v>
+      </c>
+      <c r="E621" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H621" s="61">
+        <v>128</v>
+      </c>
+      <c r="I621" s="61">
+        <v>420</v>
+      </c>
+      <c r="N621" s="145">
+        <v>138</v>
+      </c>
+      <c r="O621" s="146">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="P621" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q621" s="147">
+        <f t="shared" si="84"/>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A622" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B622" s="82">
+        <v>435</v>
+      </c>
+      <c r="C622" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D622" s="68">
+        <v>17</v>
+      </c>
+      <c r="E622" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H622" s="61">
+        <v>132</v>
+      </c>
+      <c r="I622" s="61">
+        <v>420</v>
+      </c>
+      <c r="N622" s="145">
+        <v>138</v>
+      </c>
+      <c r="O622" s="146">
+        <f t="shared" si="82"/>
+        <v>6</v>
+      </c>
+      <c r="P622" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q622" s="147">
+        <f t="shared" si="84"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A623" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B623" s="82">
+        <v>505</v>
+      </c>
+      <c r="C623" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D623" s="68">
+        <v>18</v>
+      </c>
+      <c r="E623" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H623" s="61">
+        <v>132</v>
+      </c>
+      <c r="I623" s="61">
+        <v>420</v>
+      </c>
+      <c r="N623" s="145">
+        <v>138</v>
+      </c>
+      <c r="O623" s="146">
+        <f t="shared" si="82"/>
+        <v>6</v>
+      </c>
+      <c r="P623" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q623" s="147">
+        <f t="shared" si="84"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A624" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B624" s="82">
+        <v>535</v>
+      </c>
+      <c r="C624" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D624" s="68">
+        <v>19</v>
+      </c>
+      <c r="E624" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H624" s="61">
+        <v>130</v>
+      </c>
+      <c r="I624" s="61">
+        <v>420</v>
+      </c>
+      <c r="N624" s="145">
+        <v>135</v>
+      </c>
+      <c r="O624" s="146">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="P624" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q624" s="147">
+        <f t="shared" si="84"/>
+        <v>11.904761904761905</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A625" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B625" s="82">
+        <v>605</v>
+      </c>
+      <c r="C625" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D625" s="68">
+        <v>20</v>
+      </c>
+      <c r="E625" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H625" s="61">
+        <v>128</v>
+      </c>
+      <c r="I625" s="61">
+        <v>420</v>
+      </c>
+      <c r="N625" s="145">
+        <v>135</v>
+      </c>
+      <c r="O625" s="146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="P625" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q625" s="147">
+        <f t="shared" si="84"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A626" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B626" s="82">
+        <v>635</v>
+      </c>
+      <c r="C626" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D626" s="68">
+        <v>21</v>
+      </c>
+      <c r="E626" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H626" s="61">
+        <v>128</v>
+      </c>
+      <c r="I626" s="61">
+        <v>420</v>
+      </c>
+      <c r="N626" s="145">
+        <v>138</v>
+      </c>
+      <c r="O626" s="146">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="P626" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q626" s="147">
+        <f t="shared" si="84"/>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A627" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B627" s="82">
+        <v>705</v>
+      </c>
+      <c r="C627" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D627" s="68">
+        <v>22</v>
+      </c>
+      <c r="E627" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H627" s="61">
+        <v>129</v>
+      </c>
+      <c r="I627" s="61">
+        <v>420</v>
+      </c>
+      <c r="N627" s="145">
+        <v>139</v>
+      </c>
+      <c r="O627" s="146">
+        <f t="shared" si="82"/>
+        <v>10</v>
+      </c>
+      <c r="P627" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q627" s="147">
+        <f t="shared" si="84"/>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A628" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B628" s="82">
+        <v>735</v>
+      </c>
+      <c r="C628" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D628" s="68">
+        <v>23</v>
+      </c>
+      <c r="E628" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H628" s="61">
+        <v>129</v>
+      </c>
+      <c r="I628" s="61">
+        <v>420</v>
+      </c>
+      <c r="N628" s="145">
+        <v>138</v>
+      </c>
+      <c r="O628" s="146">
+        <f t="shared" si="82"/>
+        <v>9</v>
+      </c>
+      <c r="P628" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q628" s="147">
+        <f t="shared" si="84"/>
+        <v>21.428571428571431</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A629" s="108">
+        <v>41966</v>
+      </c>
+      <c r="B629" s="82">
+        <v>805</v>
+      </c>
+      <c r="C629" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D629" s="68">
+        <v>24</v>
+      </c>
+      <c r="E629" s="60">
+        <v>41967</v>
+      </c>
+      <c r="F629" s="62">
+        <v>1620</v>
+      </c>
+      <c r="H629" s="61">
+        <v>127</v>
+      </c>
+      <c r="I629" s="61">
+        <v>420</v>
+      </c>
+      <c r="N629" s="145">
+        <v>134</v>
+      </c>
+      <c r="O629" s="146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="P629" s="146">
+        <f t="shared" si="83"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q629" s="147">
+        <f t="shared" si="84"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A630" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B630" s="82">
+        <v>1005</v>
+      </c>
+      <c r="C630" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D630" s="68">
+        <v>1</v>
+      </c>
+      <c r="E630" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H630" s="61">
+        <v>130</v>
+      </c>
+      <c r="I630" s="61">
+        <v>520</v>
+      </c>
+      <c r="N630" s="145">
+        <v>130</v>
+      </c>
+      <c r="O630" s="146">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P630" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52</v>
+      </c>
+      <c r="Q630" s="147">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A631" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B631" s="82">
+        <v>1115</v>
+      </c>
+      <c r="C631" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D631" s="68">
+        <v>2</v>
+      </c>
+      <c r="E631" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H631" s="61">
+        <v>129</v>
+      </c>
+      <c r="I631" s="61">
+        <v>500</v>
+      </c>
+      <c r="N631" s="145">
+        <v>129</v>
+      </c>
+      <c r="O631" s="146">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P631" s="146">
+        <f t="shared" si="83"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q631" s="147">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A632" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B632" s="82">
+        <v>1215</v>
+      </c>
+      <c r="C632" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D632" s="68">
+        <v>3</v>
+      </c>
+      <c r="E632" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H632" s="61">
+        <v>130</v>
+      </c>
+      <c r="I632" s="61">
+        <v>500</v>
+      </c>
+      <c r="N632" s="145">
+        <v>130</v>
+      </c>
+      <c r="O632" s="146">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P632" s="146">
+        <f t="shared" si="83"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q632" s="147">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A633" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B633" s="82">
+        <v>921</v>
+      </c>
+      <c r="C633" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D633" s="68">
+        <v>1</v>
+      </c>
+      <c r="E633" s="60">
+        <v>41967</v>
+      </c>
+      <c r="F633" s="62">
+        <v>1635</v>
+      </c>
+      <c r="H633" s="61">
+        <v>128</v>
+      </c>
+      <c r="I633" s="61">
+        <v>525</v>
+      </c>
+      <c r="N633" s="145">
+        <v>149</v>
+      </c>
+      <c r="O633" s="146">
+        <f t="shared" si="82"/>
+        <v>21</v>
+      </c>
+      <c r="P633" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q633" s="147">
+        <f t="shared" si="84"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A634" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B634" s="82">
+        <v>951</v>
+      </c>
+      <c r="C634" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D634" s="68">
+        <v>2</v>
+      </c>
+      <c r="E634" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H634" s="61">
+        <v>129</v>
+      </c>
+      <c r="I634" s="61">
+        <v>525</v>
+      </c>
+      <c r="N634" s="145">
+        <v>134</v>
+      </c>
+      <c r="O634" s="146">
+        <f t="shared" si="82"/>
+        <v>5</v>
+      </c>
+      <c r="P634" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q634" s="147">
+        <f t="shared" si="84"/>
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A635" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B635" s="82">
+        <v>1021</v>
+      </c>
+      <c r="C635" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D635" s="68">
+        <v>3</v>
+      </c>
+      <c r="E635" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H635" s="61">
+        <v>128</v>
+      </c>
+      <c r="I635" s="61">
+        <v>525</v>
+      </c>
+      <c r="N635" s="145">
+        <v>132</v>
+      </c>
+      <c r="O635" s="146">
+        <f t="shared" si="82"/>
+        <v>4</v>
+      </c>
+      <c r="P635" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q635" s="147">
+        <f t="shared" si="84"/>
+        <v>7.6190476190476186</v>
+      </c>
+    </row>
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A636" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B636" s="82">
+        <v>1051</v>
+      </c>
+      <c r="C636" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D636" s="68">
+        <v>4</v>
+      </c>
+      <c r="E636" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H636" s="61">
+        <v>130</v>
+      </c>
+      <c r="I636" s="61">
+        <v>525</v>
+      </c>
+      <c r="N636" s="145">
+        <v>132</v>
+      </c>
+      <c r="O636" s="146">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P636" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q636" s="147">
+        <f t="shared" si="84"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A637" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B637" s="82">
+        <v>1121</v>
+      </c>
+      <c r="C637" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D637" s="68">
+        <v>5</v>
+      </c>
+      <c r="E637" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H637" s="61">
+        <v>129</v>
+      </c>
+      <c r="I637" s="61">
+        <v>525</v>
+      </c>
+      <c r="N637" s="145">
+        <v>131</v>
+      </c>
+      <c r="O637" s="146">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P637" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q637" s="147">
+        <f t="shared" si="84"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A638" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B638" s="82">
+        <v>1151</v>
+      </c>
+      <c r="C638" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D638" s="68">
+        <v>6</v>
+      </c>
+      <c r="E638" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H638" s="61">
+        <v>129</v>
+      </c>
+      <c r="I638" s="61">
+        <v>525</v>
+      </c>
+      <c r="N638" s="145">
+        <v>131</v>
+      </c>
+      <c r="O638" s="146">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P638" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q638" s="147">
+        <f t="shared" si="84"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A639" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B639" s="82">
+        <v>1221</v>
+      </c>
+      <c r="C639" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D639" s="68">
+        <v>7</v>
+      </c>
+      <c r="E639" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H639" s="61">
+        <v>129</v>
+      </c>
+      <c r="I639" s="61">
+        <v>525</v>
+      </c>
+      <c r="N639" s="145">
+        <v>130</v>
+      </c>
+      <c r="O639" s="146">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="P639" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q639" s="147">
+        <f t="shared" si="84"/>
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A640" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B640" s="82">
+        <v>1251</v>
+      </c>
+      <c r="C640" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D640" s="68">
+        <v>8</v>
+      </c>
+      <c r="E640" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H640" s="61">
+        <v>128</v>
+      </c>
+      <c r="I640" s="61">
+        <v>525</v>
+      </c>
+      <c r="N640" s="145">
+        <v>131</v>
+      </c>
+      <c r="O640" s="146">
+        <f t="shared" si="82"/>
+        <v>3</v>
+      </c>
+      <c r="P640" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q640" s="147">
+        <f t="shared" si="84"/>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A641" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B641" s="82">
+        <v>1321</v>
+      </c>
+      <c r="C641" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D641" s="68">
+        <v>9</v>
+      </c>
+      <c r="E641" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H641" s="61">
+        <v>128</v>
+      </c>
+      <c r="I641" s="61">
+        <v>525</v>
+      </c>
+      <c r="K641" s="61">
+        <v>1700</v>
+      </c>
+      <c r="N641" s="145">
+        <v>130</v>
+      </c>
+      <c r="O641" s="146">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P641" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q641" s="147">
+        <f t="shared" si="84"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A642" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B642" s="82">
+        <v>1351</v>
+      </c>
+      <c r="C642" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D642" s="68">
+        <v>10</v>
+      </c>
+      <c r="E642" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H642" s="61">
+        <v>128</v>
+      </c>
+      <c r="I642" s="61">
+        <v>525</v>
+      </c>
+      <c r="N642" s="145">
+        <v>129</v>
+      </c>
+      <c r="O642" s="146">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="P642" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q642" s="147">
+        <f t="shared" si="84"/>
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A643" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B643" s="82">
+        <v>1421</v>
+      </c>
+      <c r="C643" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D643" s="68">
+        <v>11</v>
+      </c>
+      <c r="E643" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H643" s="61">
+        <v>128</v>
+      </c>
+      <c r="I643" s="61">
+        <v>525</v>
+      </c>
+      <c r="N643" s="145">
+        <v>130</v>
+      </c>
+      <c r="O643" s="146">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P643" s="146">
+        <f t="shared" si="83"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q643" s="147">
+        <f t="shared" si="84"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A644" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B644" s="82">
+        <v>1451</v>
+      </c>
+      <c r="C644" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D644" s="68">
+        <v>12</v>
+      </c>
+      <c r="E644" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H644" s="61">
+        <v>133</v>
+      </c>
+      <c r="I644" s="61">
+        <v>525</v>
+      </c>
+      <c r="N644" s="145">
+        <v>133</v>
+      </c>
+      <c r="O644" s="146">
+        <f t="shared" ref="O644:O665" si="85">N644-H644</f>
+        <v>0</v>
+      </c>
+      <c r="P644" s="146">
+        <f t="shared" ref="P644:P665" si="86">I644/1000</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q644" s="147">
+        <f t="shared" ref="Q644:Q665" si="87">O644/P644</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A645" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B645" s="82">
+        <v>1551</v>
+      </c>
+      <c r="C645" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D645" s="68">
+        <v>14</v>
+      </c>
+      <c r="E645" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H645" s="61">
+        <v>130</v>
+      </c>
+      <c r="I645" s="61">
+        <v>525</v>
+      </c>
+      <c r="N645" s="145">
+        <v>131</v>
+      </c>
+      <c r="O645" s="146">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="P645" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q645" s="147">
+        <f t="shared" si="87"/>
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A646" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B646" s="82">
+        <v>1651</v>
+      </c>
+      <c r="C646" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D646" s="68">
+        <v>16</v>
+      </c>
+      <c r="E646" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H646" s="61">
+        <v>129</v>
+      </c>
+      <c r="I646" s="61">
+        <v>525</v>
+      </c>
+      <c r="N646" s="145">
+        <v>129</v>
+      </c>
+      <c r="O646" s="146">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="P646" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q646" s="147">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A647" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B647" s="82">
+        <v>1721</v>
+      </c>
+      <c r="C647" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D647" s="68">
+        <v>17</v>
+      </c>
+      <c r="E647" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H647" s="61">
+        <v>132</v>
+      </c>
+      <c r="I647" s="61">
+        <v>525</v>
+      </c>
+      <c r="N647" s="145">
+        <v>134</v>
+      </c>
+      <c r="O647" s="146">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="P647" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q647" s="147">
+        <f t="shared" si="87"/>
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A648" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B648" s="82">
+        <v>1751</v>
+      </c>
+      <c r="C648" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D648" s="68">
+        <v>18</v>
+      </c>
+      <c r="E648" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H648" s="61">
+        <v>130</v>
+      </c>
+      <c r="I648" s="61">
+        <v>525</v>
+      </c>
+      <c r="N648" s="145">
+        <v>135</v>
+      </c>
+      <c r="O648" s="146">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="P648" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q648" s="147">
+        <f t="shared" si="87"/>
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A649" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B649" s="82">
+        <v>1821</v>
+      </c>
+      <c r="C649" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D649" s="68">
+        <v>19</v>
+      </c>
+      <c r="E649" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H649" s="61">
+        <v>128</v>
+      </c>
+      <c r="I649" s="61">
+        <v>525</v>
+      </c>
+      <c r="N649" s="145">
+        <v>135</v>
+      </c>
+      <c r="O649" s="146">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
+      <c r="P649" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q649" s="147">
+        <f t="shared" si="87"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A650" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B650" s="82">
+        <v>1851</v>
+      </c>
+      <c r="C650" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D650" s="68">
+        <v>20</v>
+      </c>
+      <c r="E650" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H650" s="61">
+        <v>131</v>
+      </c>
+      <c r="I650" s="61">
+        <v>525</v>
+      </c>
+      <c r="N650" s="145">
+        <v>137</v>
+      </c>
+      <c r="O650" s="146">
+        <f t="shared" si="85"/>
+        <v>6</v>
+      </c>
+      <c r="P650" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q650" s="147">
+        <f t="shared" si="87"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A651" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B651" s="82">
+        <v>1921</v>
+      </c>
+      <c r="C651" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D651" s="68">
+        <v>21</v>
+      </c>
+      <c r="E651" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H651" s="61">
+        <v>128</v>
+      </c>
+      <c r="I651" s="61">
+        <v>525</v>
+      </c>
+      <c r="N651" s="145">
+        <v>134</v>
+      </c>
+      <c r="O651" s="146">
+        <f t="shared" si="85"/>
+        <v>6</v>
+      </c>
+      <c r="P651" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q651" s="147">
+        <f t="shared" si="87"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A652" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B652" s="82">
+        <v>1951</v>
+      </c>
+      <c r="C652" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D652" s="68">
+        <v>22</v>
+      </c>
+      <c r="E652" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H652" s="61">
+        <v>131</v>
+      </c>
+      <c r="I652" s="61">
+        <v>525</v>
+      </c>
+      <c r="N652" s="145">
+        <v>134</v>
+      </c>
+      <c r="O652" s="146">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="P652" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q652" s="147">
+        <f t="shared" si="87"/>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A653" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B653" s="82">
+        <v>2021</v>
+      </c>
+      <c r="C653" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D653" s="68">
+        <v>23</v>
+      </c>
+      <c r="E653" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H653" s="61">
+        <v>130</v>
+      </c>
+      <c r="I653" s="61">
+        <v>525</v>
+      </c>
+      <c r="N653" s="145">
+        <v>133</v>
+      </c>
+      <c r="O653" s="146">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="P653" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q653" s="147">
+        <f t="shared" si="87"/>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A654" s="108">
+        <v>41955</v>
+      </c>
+      <c r="B654" s="82">
+        <v>2051</v>
+      </c>
+      <c r="C654" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D654" s="68">
+        <v>24</v>
+      </c>
+      <c r="E654" s="60">
+        <v>41967</v>
+      </c>
+      <c r="H654" s="61">
+        <v>130</v>
+      </c>
+      <c r="I654" s="61">
+        <v>525</v>
+      </c>
+      <c r="N654" s="145">
+        <v>134</v>
+      </c>
+      <c r="O654" s="146">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="P654" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q654" s="147">
+        <f t="shared" si="87"/>
+        <v>7.6190476190476186</v>
+      </c>
+    </row>
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A655" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B655" s="82">
+        <v>2210</v>
+      </c>
+      <c r="C655" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D655" s="68">
+        <v>1</v>
+      </c>
+      <c r="E655" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H655" s="61">
+        <v>131</v>
+      </c>
+      <c r="I655" s="61">
+        <v>420</v>
+      </c>
+      <c r="K655" s="61">
+        <v>1520</v>
+      </c>
+      <c r="N655" s="145">
+        <v>152</v>
+      </c>
+      <c r="O655" s="146">
+        <f t="shared" si="85"/>
+        <v>21</v>
+      </c>
+      <c r="P655" s="146">
+        <f t="shared" si="86"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q655" s="147">
+        <f t="shared" si="87"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A656" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B656" s="82">
+        <v>2240</v>
+      </c>
+      <c r="C656" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D656" s="68">
+        <v>2</v>
+      </c>
+      <c r="E656" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H656" s="61">
+        <v>128</v>
+      </c>
+      <c r="I656" s="61">
+        <v>420</v>
+      </c>
+      <c r="N656" s="145">
+        <v>150</v>
+      </c>
+      <c r="O656" s="146">
+        <f t="shared" si="85"/>
+        <v>22</v>
+      </c>
+      <c r="P656" s="146">
+        <f t="shared" si="86"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q656" s="147">
+        <f t="shared" si="87"/>
+        <v>52.38095238095238</v>
+      </c>
+    </row>
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A657" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B657" s="82">
+        <v>2310</v>
+      </c>
+      <c r="C657" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D657" s="68">
+        <v>3</v>
+      </c>
+      <c r="E657" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H657" s="61">
+        <v>128</v>
+      </c>
+      <c r="I657" s="61">
+        <v>420</v>
+      </c>
+      <c r="N657" s="145">
+        <v>143</v>
+      </c>
+      <c r="O657" s="146">
+        <f t="shared" si="85"/>
+        <v>15</v>
+      </c>
+      <c r="P657" s="146">
+        <f t="shared" si="86"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q657" s="147">
+        <f t="shared" si="87"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A658" s="108">
+        <v>41967</v>
+      </c>
+      <c r="B658" s="82">
+        <v>2340</v>
+      </c>
+      <c r="C658" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D658" s="68">
+        <v>4</v>
+      </c>
+      <c r="E658" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H658" s="61">
+        <v>131</v>
+      </c>
+      <c r="I658" s="61">
+        <v>420</v>
+      </c>
+      <c r="N658" s="145">
+        <v>143</v>
+      </c>
+      <c r="O658" s="146">
+        <f t="shared" si="85"/>
+        <v>12</v>
+      </c>
+      <c r="P658" s="146">
+        <f t="shared" si="86"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q658" s="147">
+        <f t="shared" si="87"/>
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A659" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B659" s="82">
+        <v>10</v>
+      </c>
+      <c r="C659" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D659" s="68">
+        <v>5</v>
+      </c>
+      <c r="E659" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H659" s="61">
+        <v>128</v>
+      </c>
+      <c r="I659" s="61">
+        <v>350</v>
+      </c>
+      <c r="N659" s="145">
+        <v>137</v>
+      </c>
+      <c r="O659" s="146">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="P659" s="146">
+        <f t="shared" si="86"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q659" s="147">
+        <f t="shared" si="87"/>
+        <v>25.714285714285715</v>
+      </c>
+    </row>
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A660" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B660" s="82">
+        <v>40</v>
+      </c>
+      <c r="C660" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D660" s="68">
+        <v>6</v>
+      </c>
+      <c r="E660" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H660" s="61">
+        <v>128</v>
+      </c>
+      <c r="I660" s="61">
+        <v>420</v>
+      </c>
+      <c r="N660" s="145">
+        <v>140</v>
+      </c>
+      <c r="O660" s="146">
+        <f t="shared" si="85"/>
+        <v>12</v>
+      </c>
+      <c r="P660" s="146">
+        <f t="shared" si="86"/>
+        <v>0.42</v>
+      </c>
+      <c r="Q660" s="147">
+        <f t="shared" si="87"/>
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A661" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B661" s="82">
+        <v>1030</v>
+      </c>
+      <c r="C661" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D661" s="68">
+        <v>1</v>
+      </c>
+      <c r="E661" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H661" s="61">
+        <v>130</v>
+      </c>
+      <c r="I661" s="61">
+        <v>525</v>
+      </c>
+      <c r="N661" s="145">
+        <v>131</v>
+      </c>
+      <c r="O661" s="146">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="P661" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q661" s="147">
+        <f t="shared" si="87"/>
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A662" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B662" s="82">
+        <v>1150</v>
+      </c>
+      <c r="C662" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D662" s="68">
+        <v>4</v>
+      </c>
+      <c r="E662" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H662" s="61">
+        <v>131</v>
+      </c>
+      <c r="I662" s="61">
+        <v>525</v>
+      </c>
+      <c r="N662" s="145">
+        <v>132</v>
+      </c>
+      <c r="O662" s="146">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="P662" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q662" s="147">
+        <f t="shared" si="87"/>
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A663" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B663" s="82">
+        <v>1045</v>
+      </c>
+      <c r="C663" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D663" s="68">
+        <v>4</v>
+      </c>
+      <c r="E663" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H663" s="61">
+        <v>131</v>
+      </c>
+      <c r="I663" s="61">
+        <v>500</v>
+      </c>
+      <c r="N663" s="145">
+        <v>131</v>
+      </c>
+      <c r="O663" s="146">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="P663" s="146">
+        <f t="shared" si="86"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q663" s="147">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A664" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B664" s="82">
+        <v>1000</v>
+      </c>
+      <c r="C664" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D664" s="68">
+        <v>2</v>
+      </c>
+      <c r="E664" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H664" s="61">
+        <v>133</v>
+      </c>
+      <c r="I664" s="61">
+        <v>525</v>
+      </c>
+      <c r="N664" s="145">
+        <v>133</v>
+      </c>
+      <c r="O664" s="146">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="P664" s="146">
+        <f t="shared" si="86"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q664" s="147">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A665" s="108">
+        <v>41968</v>
+      </c>
+      <c r="B665" s="82">
+        <v>930</v>
+      </c>
+      <c r="C665" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D665" s="68">
+        <v>1</v>
+      </c>
+      <c r="E665" s="60">
+        <v>41968</v>
+      </c>
+      <c r="H665" s="61">
+        <v>131</v>
+      </c>
+      <c r="I665" s="61">
+        <v>500</v>
+      </c>
+      <c r="K665" s="61">
+        <v>1630</v>
+      </c>
+      <c r="N665" s="145">
+        <v>132</v>
+      </c>
+      <c r="O665" s="146">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="P665" s="146">
+        <f t="shared" si="86"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q665" s="147">
+        <f t="shared" si="87"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24880,7 +27210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
@@ -44813,13 +47143,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R722"/>
+  <dimension ref="A1:R782"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B709" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B742" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="B747" sqref="B747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71229,10 +73559,10 @@
       <c r="C696" t="s">
         <v>65</v>
       </c>
-      <c r="D696">
+      <c r="D696" s="121">
         <v>1</v>
       </c>
-      <c r="E696" s="6">
+      <c r="E696" s="148">
         <v>41955</v>
       </c>
       <c r="F696">
@@ -71257,15 +73587,12 @@
         <v>203</v>
       </c>
       <c r="O696">
-        <f>N696-H696</f>
         <v>74</v>
       </c>
       <c r="P696">
-        <f>I696/1000</f>
         <v>0.51</v>
       </c>
       <c r="Q696" s="121">
-        <f>O696/P696</f>
         <v>145.09803921568627</v>
       </c>
     </row>
@@ -71279,10 +73606,10 @@
       <c r="C697" t="s">
         <v>21</v>
       </c>
-      <c r="D697">
+      <c r="D697" s="121">
         <v>2</v>
       </c>
-      <c r="E697" s="6">
+      <c r="E697" s="148">
         <v>41955</v>
       </c>
       <c r="F697"/>
@@ -71301,15 +73628,12 @@
         <v>228</v>
       </c>
       <c r="O697">
-        <f t="shared" ref="O697:O722" si="3">N697-H697</f>
         <v>100</v>
       </c>
       <c r="P697">
-        <f t="shared" ref="P697:P722" si="4">I697/1000</f>
         <v>0.51</v>
       </c>
       <c r="Q697" s="121">
-        <f t="shared" ref="Q697:Q722" si="5">O697/P697</f>
         <v>196.07843137254901</v>
       </c>
     </row>
@@ -71323,10 +73647,10 @@
       <c r="C698" t="s">
         <v>18</v>
       </c>
-      <c r="D698">
+      <c r="D698" s="121">
         <v>3</v>
       </c>
-      <c r="E698" s="6">
+      <c r="E698" s="148">
         <v>41955</v>
       </c>
       <c r="F698"/>
@@ -71345,15 +73669,12 @@
         <v>227</v>
       </c>
       <c r="O698">
-        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="P698">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q698" s="121">
-        <f t="shared" si="5"/>
         <v>194.11764705882354</v>
       </c>
     </row>
@@ -71367,10 +73688,10 @@
       <c r="C699" t="s">
         <v>35</v>
       </c>
-      <c r="D699">
+      <c r="D699" s="121">
         <v>1</v>
       </c>
-      <c r="E699" s="6">
+      <c r="E699" s="148">
         <v>41955</v>
       </c>
       <c r="F699"/>
@@ -71389,15 +73710,12 @@
         <v>152</v>
       </c>
       <c r="O699">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="P699">
-        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="Q699" s="121">
-        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -71411,10 +73729,10 @@
       <c r="C700" t="s">
         <v>35</v>
       </c>
-      <c r="D700">
+      <c r="D700" s="121">
         <v>2</v>
       </c>
-      <c r="E700" s="6">
+      <c r="E700" s="148">
         <v>41955</v>
       </c>
       <c r="F700"/>
@@ -71433,15 +73751,12 @@
         <v>137</v>
       </c>
       <c r="O700">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P700">
-        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="Q700" s="121">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -71455,10 +73770,10 @@
       <c r="C701" t="s">
         <v>35</v>
       </c>
-      <c r="D701">
+      <c r="D701" s="121">
         <v>3</v>
       </c>
-      <c r="E701" s="6">
+      <c r="E701" s="148">
         <v>41955</v>
       </c>
       <c r="F701"/>
@@ -71477,15 +73792,12 @@
         <v>133</v>
       </c>
       <c r="O701">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P701">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q701" s="121">
-        <f t="shared" si="5"/>
         <v>7.8431372549019605</v>
       </c>
     </row>
@@ -71499,10 +73811,10 @@
       <c r="C702" t="s">
         <v>35</v>
       </c>
-      <c r="D702">
+      <c r="D702" s="121">
         <v>4</v>
       </c>
-      <c r="E702" s="6">
+      <c r="E702" s="148">
         <v>41955</v>
       </c>
       <c r="F702"/>
@@ -71521,15 +73833,12 @@
         <v>133</v>
       </c>
       <c r="O702">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P702">
-        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q702" s="121">
-        <f t="shared" si="5"/>
         <v>7.2727272727272725</v>
       </c>
     </row>
@@ -71543,10 +73852,10 @@
       <c r="C703" t="s">
         <v>35</v>
       </c>
-      <c r="D703">
+      <c r="D703" s="121">
         <v>5</v>
       </c>
-      <c r="E703" s="6">
+      <c r="E703" s="148">
         <v>41955</v>
       </c>
       <c r="F703"/>
@@ -71565,15 +73874,12 @@
         <v>129</v>
       </c>
       <c r="O703">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P703">
-        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="Q703" s="121">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -71587,10 +73893,10 @@
       <c r="C704" t="s">
         <v>35</v>
       </c>
-      <c r="D704">
+      <c r="D704" s="121">
         <v>6</v>
       </c>
-      <c r="E704" s="6">
+      <c r="E704" s="148">
         <v>41955</v>
       </c>
       <c r="F704"/>
@@ -71609,15 +73915,12 @@
         <v>132</v>
       </c>
       <c r="O704">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P704">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q704" s="121">
-        <f t="shared" si="5"/>
         <v>7.6190476190476186</v>
       </c>
     </row>
@@ -71631,10 +73934,10 @@
       <c r="C705" t="s">
         <v>35</v>
       </c>
-      <c r="D705">
+      <c r="D705" s="121">
         <v>7</v>
       </c>
-      <c r="E705" s="6">
+      <c r="E705" s="148">
         <v>41955</v>
       </c>
       <c r="F705"/>
@@ -71653,15 +73956,12 @@
         <v>130</v>
       </c>
       <c r="O705">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P705">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q705" s="121">
-        <f t="shared" si="5"/>
         <v>7.8431372549019605</v>
       </c>
     </row>
@@ -71675,10 +73975,10 @@
       <c r="C706" t="s">
         <v>35</v>
       </c>
-      <c r="D706">
+      <c r="D706" s="121">
         <v>8</v>
       </c>
-      <c r="E706" s="6">
+      <c r="E706" s="148">
         <v>41955</v>
       </c>
       <c r="F706"/>
@@ -71697,15 +73997,12 @@
         <v>152</v>
       </c>
       <c r="O706">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P706">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q706" s="121">
-        <f t="shared" si="5"/>
         <v>47.61904761904762</v>
       </c>
     </row>
@@ -71719,10 +74016,10 @@
       <c r="C707" t="s">
         <v>35</v>
       </c>
-      <c r="D707">
+      <c r="D707" s="121">
         <v>9</v>
       </c>
-      <c r="E707" s="6">
+      <c r="E707" s="148">
         <v>41955</v>
       </c>
       <c r="F707">
@@ -71743,15 +74040,12 @@
         <v>142</v>
       </c>
       <c r="O707">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="P707">
-        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q707" s="121">
-        <f t="shared" si="5"/>
         <v>27.27272727272727</v>
       </c>
     </row>
@@ -71765,10 +74059,10 @@
       <c r="C708" t="s">
         <v>35</v>
       </c>
-      <c r="D708">
+      <c r="D708" s="121">
         <v>10</v>
       </c>
-      <c r="E708" s="6">
+      <c r="E708" s="148">
         <v>41956</v>
       </c>
       <c r="F708">
@@ -71789,15 +74083,12 @@
         <v>137</v>
       </c>
       <c r="O708">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="P708">
-        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q708" s="121">
-        <f t="shared" si="5"/>
         <v>14.545454545454545</v>
       </c>
     </row>
@@ -71811,10 +74102,10 @@
       <c r="C709" t="s">
         <v>35</v>
       </c>
-      <c r="D709">
+      <c r="D709" s="121">
         <v>11</v>
       </c>
-      <c r="E709" s="6">
+      <c r="E709" s="148">
         <v>41956</v>
       </c>
       <c r="F709"/>
@@ -71833,15 +74124,12 @@
         <v>137</v>
       </c>
       <c r="O709">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P709">
-        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="Q709" s="121">
-        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -71855,10 +74143,10 @@
       <c r="C710" t="s">
         <v>35</v>
       </c>
-      <c r="D710">
+      <c r="D710" s="121">
         <v>12</v>
       </c>
-      <c r="E710" s="6">
+      <c r="E710" s="148">
         <v>41956</v>
       </c>
       <c r="F710"/>
@@ -71877,15 +74165,12 @@
         <v>140</v>
       </c>
       <c r="O710">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="P710">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q710" s="121">
-        <f t="shared" si="5"/>
         <v>19.607843137254903</v>
       </c>
     </row>
@@ -71899,10 +74184,10 @@
       <c r="C711" t="s">
         <v>35</v>
       </c>
-      <c r="D711">
+      <c r="D711" s="121">
         <v>13</v>
       </c>
-      <c r="E711" s="6">
+      <c r="E711" s="148">
         <v>41956</v>
       </c>
       <c r="F711"/>
@@ -71921,15 +74206,12 @@
         <v>133</v>
       </c>
       <c r="O711">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P711">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q711" s="121">
-        <f t="shared" si="5"/>
         <v>7.8431372549019605</v>
       </c>
     </row>
@@ -71943,10 +74225,10 @@
       <c r="C712" t="s">
         <v>35</v>
       </c>
-      <c r="D712">
+      <c r="D712" s="121">
         <v>14</v>
       </c>
-      <c r="E712" s="6">
+      <c r="E712" s="148">
         <v>41956</v>
       </c>
       <c r="F712"/>
@@ -71965,15 +74247,12 @@
         <v>134</v>
       </c>
       <c r="O712">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="P712">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q712" s="121">
-        <f t="shared" si="5"/>
         <v>9.5238095238095237</v>
       </c>
     </row>
@@ -71987,10 +74266,10 @@
       <c r="C713" t="s">
         <v>35</v>
       </c>
-      <c r="D713">
+      <c r="D713" s="121">
         <v>15</v>
       </c>
-      <c r="E713" s="6">
+      <c r="E713" s="148">
         <v>41956</v>
       </c>
       <c r="F713"/>
@@ -72009,15 +74288,12 @@
         <v>138</v>
       </c>
       <c r="O713">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P713">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q713" s="121">
-        <f t="shared" si="5"/>
         <v>17.647058823529413</v>
       </c>
     </row>
@@ -72031,10 +74307,10 @@
       <c r="C714" t="s">
         <v>35</v>
       </c>
-      <c r="D714">
+      <c r="D714" s="121">
         <v>16</v>
       </c>
-      <c r="E714" s="6">
+      <c r="E714" s="148">
         <v>41956</v>
       </c>
       <c r="F714"/>
@@ -72053,15 +74329,12 @@
         <v>131</v>
       </c>
       <c r="O714">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="P714">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q714" s="121">
-        <f t="shared" si="5"/>
         <v>9.8039215686274517</v>
       </c>
     </row>
@@ -72075,10 +74348,10 @@
       <c r="C715" t="s">
         <v>35</v>
       </c>
-      <c r="D715">
+      <c r="D715" s="121">
         <v>17</v>
       </c>
-      <c r="E715" s="6">
+      <c r="E715" s="148">
         <v>41956</v>
       </c>
       <c r="F715"/>
@@ -72097,15 +74370,12 @@
         <v>137</v>
       </c>
       <c r="O715">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="P715">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q715" s="121">
-        <f t="shared" si="5"/>
         <v>15.686274509803921</v>
       </c>
     </row>
@@ -72119,10 +74389,10 @@
       <c r="C716" t="s">
         <v>35</v>
       </c>
-      <c r="D716">
+      <c r="D716" s="121">
         <v>18</v>
       </c>
-      <c r="E716" s="6">
+      <c r="E716" s="148">
         <v>41956</v>
       </c>
       <c r="F716"/>
@@ -72141,15 +74411,12 @@
         <v>230</v>
       </c>
       <c r="O716">
-        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="P716">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q716" s="121">
-        <f t="shared" si="5"/>
         <v>201.9607843137255</v>
       </c>
     </row>
@@ -72163,10 +74430,10 @@
       <c r="C717" t="s">
         <v>35</v>
       </c>
-      <c r="D717">
+      <c r="D717" s="121">
         <v>19</v>
       </c>
-      <c r="E717" s="6">
+      <c r="E717" s="148">
         <v>41956</v>
       </c>
       <c r="F717"/>
@@ -72185,15 +74452,12 @@
         <v>183</v>
       </c>
       <c r="O717">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="P717">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q717" s="121">
-        <f t="shared" si="5"/>
         <v>100.95238095238095</v>
       </c>
     </row>
@@ -72207,10 +74471,10 @@
       <c r="C718" t="s">
         <v>35</v>
       </c>
-      <c r="D718">
+      <c r="D718" s="121">
         <v>20</v>
       </c>
-      <c r="E718" s="6">
+      <c r="E718" s="148">
         <v>41956</v>
       </c>
       <c r="F718"/>
@@ -72229,15 +74493,12 @@
         <v>167</v>
       </c>
       <c r="O718">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="P718">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q718" s="121">
-        <f t="shared" si="5"/>
         <v>72.549019607843135</v>
       </c>
     </row>
@@ -72251,10 +74512,10 @@
       <c r="C719" t="s">
         <v>35</v>
       </c>
-      <c r="D719">
+      <c r="D719" s="121">
         <v>21</v>
       </c>
-      <c r="E719" s="6">
+      <c r="E719" s="148">
         <v>41956</v>
       </c>
       <c r="F719"/>
@@ -72273,15 +74534,12 @@
         <v>167</v>
       </c>
       <c r="O719">
-        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="P719">
-        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="Q719" s="121">
-        <f t="shared" si="5"/>
         <v>74.509803921568633</v>
       </c>
     </row>
@@ -72295,10 +74553,10 @@
       <c r="C720" t="s">
         <v>35</v>
       </c>
-      <c r="D720">
+      <c r="D720" s="121">
         <v>22</v>
       </c>
-      <c r="E720" s="6">
+      <c r="E720" s="148">
         <v>41956</v>
       </c>
       <c r="F720"/>
@@ -72317,15 +74575,12 @@
         <v>149</v>
       </c>
       <c r="O720">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="P720">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q720" s="121">
-        <f t="shared" si="5"/>
         <v>38.095238095238095</v>
       </c>
     </row>
@@ -72339,10 +74594,10 @@
       <c r="C721" t="s">
         <v>35</v>
       </c>
-      <c r="D721">
+      <c r="D721" s="121">
         <v>23</v>
       </c>
-      <c r="E721" s="6">
+      <c r="E721" s="148">
         <v>41956</v>
       </c>
       <c r="F721"/>
@@ -72361,15 +74616,12 @@
         <v>144</v>
       </c>
       <c r="O721">
-        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P721">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q721" s="121">
-        <f t="shared" si="5"/>
         <v>26.666666666666664</v>
       </c>
     </row>
@@ -72383,10 +74635,10 @@
       <c r="C722" t="s">
         <v>35</v>
       </c>
-      <c r="D722">
+      <c r="D722" s="121">
         <v>24</v>
       </c>
-      <c r="E722" s="6">
+      <c r="E722" s="148">
         <v>41956</v>
       </c>
       <c r="F722">
@@ -72411,16 +74663,2140 @@
         <v>143</v>
       </c>
       <c r="O722">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="P722">
-        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="Q722" s="121">
-        <f t="shared" si="5"/>
         <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="723" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A723" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B723" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C723" t="s">
+        <v>35</v>
+      </c>
+      <c r="D723" s="121">
+        <v>1</v>
+      </c>
+      <c r="E723" s="148">
+        <v>41967</v>
+      </c>
+      <c r="F723">
+        <v>1500</v>
+      </c>
+      <c r="H723">
+        <v>133</v>
+      </c>
+      <c r="I723">
+        <v>420</v>
+      </c>
+      <c r="K723" s="127">
+        <v>1600</v>
+      </c>
+      <c r="L723">
+        <v>1800</v>
+      </c>
+      <c r="N723">
+        <v>146</v>
+      </c>
+      <c r="O723">
+        <v>13</v>
+      </c>
+      <c r="P723">
+        <v>0.42</v>
+      </c>
+      <c r="Q723" s="121">
+        <v>30.952380952380953</v>
+      </c>
+    </row>
+    <row r="724" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A724" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B724" s="9">
+        <v>2105</v>
+      </c>
+      <c r="C724" t="s">
+        <v>35</v>
+      </c>
+      <c r="D724" s="121">
+        <v>2</v>
+      </c>
+      <c r="E724" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H724">
+        <v>129</v>
+      </c>
+      <c r="I724">
+        <v>410</v>
+      </c>
+      <c r="N724">
+        <v>211</v>
+      </c>
+      <c r="O724">
+        <v>82</v>
+      </c>
+      <c r="P724">
+        <v>0.41</v>
+      </c>
+      <c r="Q724" s="121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="725" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A725" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B725" s="9">
+        <v>2135</v>
+      </c>
+      <c r="C725" t="s">
+        <v>35</v>
+      </c>
+      <c r="D725" s="121">
+        <v>3</v>
+      </c>
+      <c r="E725" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H725">
+        <v>129</v>
+      </c>
+      <c r="I725">
+        <v>420</v>
+      </c>
+      <c r="N725">
+        <v>155</v>
+      </c>
+      <c r="O725">
+        <v>26</v>
+      </c>
+      <c r="P725">
+        <v>0.42</v>
+      </c>
+      <c r="Q725" s="121">
+        <v>61.904761904761905</v>
+      </c>
+    </row>
+    <row r="726" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A726" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B726" s="9">
+        <v>2205</v>
+      </c>
+      <c r="C726" t="s">
+        <v>35</v>
+      </c>
+      <c r="D726" s="121">
+        <v>4</v>
+      </c>
+      <c r="E726" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H726">
+        <v>128</v>
+      </c>
+      <c r="I726">
+        <v>420</v>
+      </c>
+      <c r="N726">
+        <v>143</v>
+      </c>
+      <c r="O726">
+        <v>15</v>
+      </c>
+      <c r="P726">
+        <v>0.42</v>
+      </c>
+      <c r="Q726" s="121">
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="727" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A727" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B727" s="9">
+        <v>2235</v>
+      </c>
+      <c r="C727" t="s">
+        <v>35</v>
+      </c>
+      <c r="D727" s="121">
+        <v>5</v>
+      </c>
+      <c r="E727" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H727">
+        <v>128</v>
+      </c>
+      <c r="I727">
+        <v>400</v>
+      </c>
+      <c r="N727">
+        <v>140</v>
+      </c>
+      <c r="O727">
+        <v>12</v>
+      </c>
+      <c r="P727">
+        <v>0.4</v>
+      </c>
+      <c r="Q727" s="121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="728" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A728" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B728" s="9">
+        <v>2305</v>
+      </c>
+      <c r="C728" t="s">
+        <v>35</v>
+      </c>
+      <c r="D728" s="121">
+        <v>6</v>
+      </c>
+      <c r="E728" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H728">
+        <v>128</v>
+      </c>
+      <c r="I728">
+        <v>420</v>
+      </c>
+      <c r="N728">
+        <v>135</v>
+      </c>
+      <c r="O728">
+        <v>7</v>
+      </c>
+      <c r="P728">
+        <v>0.42</v>
+      </c>
+      <c r="Q728" s="121">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="729" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A729" s="128">
+        <v>41965</v>
+      </c>
+      <c r="B729" s="9">
+        <v>2335</v>
+      </c>
+      <c r="C729" t="s">
+        <v>35</v>
+      </c>
+      <c r="D729" s="121">
+        <v>7</v>
+      </c>
+      <c r="E729" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H729">
+        <v>128</v>
+      </c>
+      <c r="I729">
+        <v>420</v>
+      </c>
+      <c r="N729">
+        <v>136</v>
+      </c>
+      <c r="O729">
+        <v>8</v>
+      </c>
+      <c r="P729">
+        <v>0.42</v>
+      </c>
+      <c r="Q729" s="121">
+        <v>19.047619047619047</v>
+      </c>
+    </row>
+    <row r="730" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A730" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B730" s="9">
+        <v>5</v>
+      </c>
+      <c r="C730" t="s">
+        <v>35</v>
+      </c>
+      <c r="D730" s="121">
+        <v>8</v>
+      </c>
+      <c r="E730" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H730">
+        <v>131</v>
+      </c>
+      <c r="I730">
+        <v>420</v>
+      </c>
+      <c r="N730">
+        <v>138</v>
+      </c>
+      <c r="O730">
+        <v>7</v>
+      </c>
+      <c r="P730">
+        <v>0.42</v>
+      </c>
+      <c r="Q730" s="121">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="731" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A731" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B731" s="9">
+        <v>35</v>
+      </c>
+      <c r="C731" t="s">
+        <v>35</v>
+      </c>
+      <c r="D731" s="121">
+        <v>9</v>
+      </c>
+      <c r="E731" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H731">
+        <v>130</v>
+      </c>
+      <c r="I731">
+        <v>420</v>
+      </c>
+      <c r="N731">
+        <v>141</v>
+      </c>
+      <c r="O731">
+        <v>11</v>
+      </c>
+      <c r="P731">
+        <v>0.42</v>
+      </c>
+      <c r="Q731" s="121">
+        <v>26.19047619047619</v>
+      </c>
+    </row>
+    <row r="732" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A732" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B732" s="9">
+        <v>105</v>
+      </c>
+      <c r="C732" t="s">
+        <v>35</v>
+      </c>
+      <c r="D732" s="121">
+        <v>10</v>
+      </c>
+      <c r="E732" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H732">
+        <v>130</v>
+      </c>
+      <c r="I732">
+        <v>420</v>
+      </c>
+      <c r="N732">
+        <v>150</v>
+      </c>
+      <c r="O732">
+        <v>20</v>
+      </c>
+      <c r="P732">
+        <v>0.42</v>
+      </c>
+      <c r="Q732" s="121">
+        <v>47.61904761904762</v>
+      </c>
+    </row>
+    <row r="733" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A733" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B733" s="9">
+        <v>135</v>
+      </c>
+      <c r="C733" t="s">
+        <v>35</v>
+      </c>
+      <c r="D733" s="121">
+        <v>11</v>
+      </c>
+      <c r="E733" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H733">
+        <v>130</v>
+      </c>
+      <c r="I733">
+        <v>420</v>
+      </c>
+      <c r="N733">
+        <v>139</v>
+      </c>
+      <c r="O733">
+        <v>9</v>
+      </c>
+      <c r="P733">
+        <v>0.42</v>
+      </c>
+      <c r="Q733" s="121">
+        <v>21.428571428571431</v>
+      </c>
+    </row>
+    <row r="734" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A734" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B734" s="9">
+        <v>205</v>
+      </c>
+      <c r="C734" t="s">
+        <v>35</v>
+      </c>
+      <c r="D734" s="121">
+        <v>12</v>
+      </c>
+      <c r="E734" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H734">
+        <v>131</v>
+      </c>
+      <c r="I734">
+        <v>420</v>
+      </c>
+      <c r="K734">
+        <v>1620</v>
+      </c>
+      <c r="N734">
+        <v>138</v>
+      </c>
+      <c r="O734">
+        <v>7</v>
+      </c>
+      <c r="P734">
+        <v>0.42</v>
+      </c>
+      <c r="Q734" s="121">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="735" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A735" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B735" s="9">
+        <v>235</v>
+      </c>
+      <c r="C735" t="s">
+        <v>35</v>
+      </c>
+      <c r="D735" s="121">
+        <v>13</v>
+      </c>
+      <c r="E735" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H735">
+        <v>129</v>
+      </c>
+      <c r="I735">
+        <v>420</v>
+      </c>
+      <c r="N735">
+        <v>141</v>
+      </c>
+      <c r="O735">
+        <v>12</v>
+      </c>
+      <c r="P735">
+        <v>0.42</v>
+      </c>
+      <c r="Q735" s="121">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="736" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A736" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B736" s="9">
+        <v>305</v>
+      </c>
+      <c r="C736" t="s">
+        <v>35</v>
+      </c>
+      <c r="D736" s="121">
+        <v>14</v>
+      </c>
+      <c r="E736" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H736">
+        <v>129</v>
+      </c>
+      <c r="I736">
+        <v>420</v>
+      </c>
+      <c r="N736">
+        <v>143</v>
+      </c>
+      <c r="O736">
+        <v>14</v>
+      </c>
+      <c r="P736">
+        <v>0.42</v>
+      </c>
+      <c r="Q736" s="121">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="737" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A737" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B737" s="9">
+        <v>335</v>
+      </c>
+      <c r="C737" t="s">
+        <v>35</v>
+      </c>
+      <c r="D737" s="121">
+        <v>15</v>
+      </c>
+      <c r="E737" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H737">
+        <v>129</v>
+      </c>
+      <c r="I737">
+        <v>420</v>
+      </c>
+      <c r="N737">
+        <v>139</v>
+      </c>
+      <c r="O737">
+        <v>10</v>
+      </c>
+      <c r="P737">
+        <v>0.42</v>
+      </c>
+      <c r="Q737" s="121">
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="738" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A738" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B738" s="9">
+        <v>405</v>
+      </c>
+      <c r="C738" t="s">
+        <v>35</v>
+      </c>
+      <c r="D738" s="121">
+        <v>16</v>
+      </c>
+      <c r="E738" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H738">
+        <v>128</v>
+      </c>
+      <c r="I738">
+        <v>420</v>
+      </c>
+      <c r="N738">
+        <v>138</v>
+      </c>
+      <c r="O738">
+        <v>10</v>
+      </c>
+      <c r="P738">
+        <v>0.42</v>
+      </c>
+      <c r="Q738" s="121">
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="739" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A739" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B739" s="9">
+        <v>435</v>
+      </c>
+      <c r="C739" t="s">
+        <v>35</v>
+      </c>
+      <c r="D739" s="121">
+        <v>17</v>
+      </c>
+      <c r="E739" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H739">
+        <v>132</v>
+      </c>
+      <c r="I739">
+        <v>420</v>
+      </c>
+      <c r="N739">
+        <v>138</v>
+      </c>
+      <c r="O739">
+        <v>6</v>
+      </c>
+      <c r="P739">
+        <v>0.42</v>
+      </c>
+      <c r="Q739" s="121">
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="740" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A740" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B740" s="9">
+        <v>505</v>
+      </c>
+      <c r="C740" t="s">
+        <v>35</v>
+      </c>
+      <c r="D740" s="121">
+        <v>18</v>
+      </c>
+      <c r="E740" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H740">
+        <v>132</v>
+      </c>
+      <c r="I740">
+        <v>420</v>
+      </c>
+      <c r="N740">
+        <v>138</v>
+      </c>
+      <c r="O740">
+        <v>6</v>
+      </c>
+      <c r="P740">
+        <v>0.42</v>
+      </c>
+      <c r="Q740" s="121">
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="741" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A741" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B741" s="9">
+        <v>535</v>
+      </c>
+      <c r="C741" t="s">
+        <v>35</v>
+      </c>
+      <c r="D741" s="121">
+        <v>19</v>
+      </c>
+      <c r="E741" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H741">
+        <v>130</v>
+      </c>
+      <c r="I741">
+        <v>420</v>
+      </c>
+      <c r="N741">
+        <v>135</v>
+      </c>
+      <c r="O741">
+        <v>5</v>
+      </c>
+      <c r="P741">
+        <v>0.42</v>
+      </c>
+      <c r="Q741" s="121">
+        <v>11.904761904761905</v>
+      </c>
+    </row>
+    <row r="742" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A742" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B742" s="9">
+        <v>605</v>
+      </c>
+      <c r="C742" t="s">
+        <v>35</v>
+      </c>
+      <c r="D742" s="121">
+        <v>20</v>
+      </c>
+      <c r="E742" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H742">
+        <v>128</v>
+      </c>
+      <c r="I742">
+        <v>420</v>
+      </c>
+      <c r="N742">
+        <v>135</v>
+      </c>
+      <c r="O742">
+        <v>7</v>
+      </c>
+      <c r="P742">
+        <v>0.42</v>
+      </c>
+      <c r="Q742" s="121">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="743" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A743" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B743" s="9">
+        <v>635</v>
+      </c>
+      <c r="C743" t="s">
+        <v>35</v>
+      </c>
+      <c r="D743" s="121">
+        <v>21</v>
+      </c>
+      <c r="E743" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H743">
+        <v>128</v>
+      </c>
+      <c r="I743">
+        <v>420</v>
+      </c>
+      <c r="N743">
+        <v>138</v>
+      </c>
+      <c r="O743">
+        <v>10</v>
+      </c>
+      <c r="P743">
+        <v>0.42</v>
+      </c>
+      <c r="Q743" s="121">
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="744" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A744" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B744" s="9">
+        <v>705</v>
+      </c>
+      <c r="C744" t="s">
+        <v>35</v>
+      </c>
+      <c r="D744" s="121">
+        <v>22</v>
+      </c>
+      <c r="E744" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H744">
+        <v>129</v>
+      </c>
+      <c r="I744">
+        <v>420</v>
+      </c>
+      <c r="N744">
+        <v>139</v>
+      </c>
+      <c r="O744">
+        <v>10</v>
+      </c>
+      <c r="P744">
+        <v>0.42</v>
+      </c>
+      <c r="Q744" s="121">
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="745" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A745" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B745" s="9">
+        <v>735</v>
+      </c>
+      <c r="C745" t="s">
+        <v>35</v>
+      </c>
+      <c r="D745" s="121">
+        <v>23</v>
+      </c>
+      <c r="E745" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H745">
+        <v>129</v>
+      </c>
+      <c r="I745">
+        <v>420</v>
+      </c>
+      <c r="N745">
+        <v>138</v>
+      </c>
+      <c r="O745">
+        <v>9</v>
+      </c>
+      <c r="P745">
+        <v>0.42</v>
+      </c>
+      <c r="Q745" s="121">
+        <v>21.428571428571431</v>
+      </c>
+    </row>
+    <row r="746" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A746" s="128">
+        <v>41966</v>
+      </c>
+      <c r="B746" s="9">
+        <v>805</v>
+      </c>
+      <c r="C746" t="s">
+        <v>35</v>
+      </c>
+      <c r="D746" s="121">
+        <v>24</v>
+      </c>
+      <c r="E746" s="148">
+        <v>41967</v>
+      </c>
+      <c r="F746">
+        <v>1620</v>
+      </c>
+      <c r="H746">
+        <v>127</v>
+      </c>
+      <c r="I746">
+        <v>420</v>
+      </c>
+      <c r="N746">
+        <v>134</v>
+      </c>
+      <c r="O746">
+        <v>7</v>
+      </c>
+      <c r="P746">
+        <v>0.42</v>
+      </c>
+      <c r="Q746" s="121">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="747" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A747" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B747" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C747" t="s">
+        <v>35</v>
+      </c>
+      <c r="D747" s="121">
+        <v>1</v>
+      </c>
+      <c r="E747" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H747">
+        <v>130</v>
+      </c>
+      <c r="I747">
+        <v>520</v>
+      </c>
+      <c r="N747">
+        <v>130</v>
+      </c>
+      <c r="O747">
+        <v>0</v>
+      </c>
+      <c r="P747">
+        <v>0.52</v>
+      </c>
+      <c r="Q747" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A748" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B748" s="9">
+        <v>1115</v>
+      </c>
+      <c r="C748" t="s">
+        <v>18</v>
+      </c>
+      <c r="D748" s="121">
+        <v>2</v>
+      </c>
+      <c r="E748" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H748">
+        <v>129</v>
+      </c>
+      <c r="I748">
+        <v>500</v>
+      </c>
+      <c r="N748">
+        <v>129</v>
+      </c>
+      <c r="O748">
+        <v>0</v>
+      </c>
+      <c r="P748">
+        <v>0.5</v>
+      </c>
+      <c r="Q748" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A749" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B749" s="9">
+        <v>1215</v>
+      </c>
+      <c r="C749" t="s">
+        <v>65</v>
+      </c>
+      <c r="D749" s="121">
+        <v>3</v>
+      </c>
+      <c r="E749" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H749">
+        <v>130</v>
+      </c>
+      <c r="I749">
+        <v>500</v>
+      </c>
+      <c r="N749">
+        <v>130</v>
+      </c>
+      <c r="O749">
+        <v>0</v>
+      </c>
+      <c r="P749">
+        <v>0.5</v>
+      </c>
+      <c r="Q749" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A750" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B750" s="9">
+        <v>921</v>
+      </c>
+      <c r="C750" t="s">
+        <v>35</v>
+      </c>
+      <c r="D750" s="121">
+        <v>1</v>
+      </c>
+      <c r="E750" s="148">
+        <v>41967</v>
+      </c>
+      <c r="F750">
+        <v>1635</v>
+      </c>
+      <c r="H750">
+        <v>128</v>
+      </c>
+      <c r="I750">
+        <v>525</v>
+      </c>
+      <c r="N750">
+        <v>149</v>
+      </c>
+      <c r="O750">
+        <v>21</v>
+      </c>
+      <c r="P750">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q750" s="121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="751" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A751" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B751" s="9">
+        <v>951</v>
+      </c>
+      <c r="C751" t="s">
+        <v>35</v>
+      </c>
+      <c r="D751" s="121">
+        <v>2</v>
+      </c>
+      <c r="E751" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H751">
+        <v>129</v>
+      </c>
+      <c r="I751">
+        <v>525</v>
+      </c>
+      <c r="N751">
+        <v>134</v>
+      </c>
+      <c r="O751">
+        <v>5</v>
+      </c>
+      <c r="P751">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q751" s="121">
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="752" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A752" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B752" s="9">
+        <v>1021</v>
+      </c>
+      <c r="C752" t="s">
+        <v>35</v>
+      </c>
+      <c r="D752" s="121">
+        <v>3</v>
+      </c>
+      <c r="E752" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H752">
+        <v>128</v>
+      </c>
+      <c r="I752">
+        <v>525</v>
+      </c>
+      <c r="N752">
+        <v>132</v>
+      </c>
+      <c r="O752">
+        <v>4</v>
+      </c>
+      <c r="P752">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q752" s="121">
+        <v>7.6190476190476186</v>
+      </c>
+    </row>
+    <row r="753" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A753" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B753" s="9">
+        <v>1051</v>
+      </c>
+      <c r="C753" t="s">
+        <v>35</v>
+      </c>
+      <c r="D753" s="121">
+        <v>4</v>
+      </c>
+      <c r="E753" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H753">
+        <v>130</v>
+      </c>
+      <c r="I753">
+        <v>525</v>
+      </c>
+      <c r="N753">
+        <v>132</v>
+      </c>
+      <c r="O753">
+        <v>2</v>
+      </c>
+      <c r="P753">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q753" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="754" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A754" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B754" s="9">
+        <v>1121</v>
+      </c>
+      <c r="C754" t="s">
+        <v>35</v>
+      </c>
+      <c r="D754" s="121">
+        <v>5</v>
+      </c>
+      <c r="E754" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H754">
+        <v>129</v>
+      </c>
+      <c r="I754">
+        <v>525</v>
+      </c>
+      <c r="N754">
+        <v>131</v>
+      </c>
+      <c r="O754">
+        <v>2</v>
+      </c>
+      <c r="P754">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q754" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="755" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A755" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B755" s="9">
+        <v>1151</v>
+      </c>
+      <c r="C755" t="s">
+        <v>35</v>
+      </c>
+      <c r="D755" s="121">
+        <v>6</v>
+      </c>
+      <c r="E755" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H755">
+        <v>129</v>
+      </c>
+      <c r="I755">
+        <v>525</v>
+      </c>
+      <c r="N755">
+        <v>131</v>
+      </c>
+      <c r="O755">
+        <v>2</v>
+      </c>
+      <c r="P755">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q755" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="756" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A756" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B756" s="9">
+        <v>1221</v>
+      </c>
+      <c r="C756" t="s">
+        <v>35</v>
+      </c>
+      <c r="D756" s="121">
+        <v>7</v>
+      </c>
+      <c r="E756" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H756">
+        <v>129</v>
+      </c>
+      <c r="I756">
+        <v>525</v>
+      </c>
+      <c r="N756">
+        <v>130</v>
+      </c>
+      <c r="O756">
+        <v>1</v>
+      </c>
+      <c r="P756">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q756" s="121">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="757" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A757" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B757" s="9">
+        <v>1251</v>
+      </c>
+      <c r="C757" t="s">
+        <v>35</v>
+      </c>
+      <c r="D757" s="121">
+        <v>8</v>
+      </c>
+      <c r="E757" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H757">
+        <v>128</v>
+      </c>
+      <c r="I757">
+        <v>525</v>
+      </c>
+      <c r="N757">
+        <v>131</v>
+      </c>
+      <c r="O757">
+        <v>3</v>
+      </c>
+      <c r="P757">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q757" s="121">
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="758" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A758" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B758" s="9">
+        <v>1321</v>
+      </c>
+      <c r="C758" t="s">
+        <v>35</v>
+      </c>
+      <c r="D758" s="121">
+        <v>9</v>
+      </c>
+      <c r="E758" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H758">
+        <v>128</v>
+      </c>
+      <c r="I758">
+        <v>525</v>
+      </c>
+      <c r="K758">
+        <v>1700</v>
+      </c>
+      <c r="N758">
+        <v>130</v>
+      </c>
+      <c r="O758">
+        <v>2</v>
+      </c>
+      <c r="P758">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q758" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="759" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A759" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B759" s="9">
+        <v>1351</v>
+      </c>
+      <c r="C759" t="s">
+        <v>35</v>
+      </c>
+      <c r="D759" s="121">
+        <v>10</v>
+      </c>
+      <c r="E759" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H759">
+        <v>128</v>
+      </c>
+      <c r="I759">
+        <v>525</v>
+      </c>
+      <c r="N759">
+        <v>129</v>
+      </c>
+      <c r="O759">
+        <v>1</v>
+      </c>
+      <c r="P759">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q759" s="121">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="760" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A760" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B760" s="9">
+        <v>1421</v>
+      </c>
+      <c r="C760" t="s">
+        <v>35</v>
+      </c>
+      <c r="D760" s="121">
+        <v>11</v>
+      </c>
+      <c r="E760" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H760">
+        <v>128</v>
+      </c>
+      <c r="I760">
+        <v>525</v>
+      </c>
+      <c r="N760">
+        <v>130</v>
+      </c>
+      <c r="O760">
+        <v>2</v>
+      </c>
+      <c r="P760">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q760" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="761" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A761" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B761" s="9">
+        <v>1451</v>
+      </c>
+      <c r="C761" t="s">
+        <v>35</v>
+      </c>
+      <c r="D761" s="121">
+        <v>12</v>
+      </c>
+      <c r="E761" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H761">
+        <v>133</v>
+      </c>
+      <c r="I761">
+        <v>525</v>
+      </c>
+      <c r="N761">
+        <v>133</v>
+      </c>
+      <c r="O761">
+        <v>0</v>
+      </c>
+      <c r="P761">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q761" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A762" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B762" s="9">
+        <v>1551</v>
+      </c>
+      <c r="C762" t="s">
+        <v>35</v>
+      </c>
+      <c r="D762" s="121">
+        <v>14</v>
+      </c>
+      <c r="E762" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H762">
+        <v>130</v>
+      </c>
+      <c r="I762">
+        <v>525</v>
+      </c>
+      <c r="N762">
+        <v>131</v>
+      </c>
+      <c r="O762">
+        <v>1</v>
+      </c>
+      <c r="P762">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q762" s="121">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="763" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A763" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B763" s="9">
+        <v>1651</v>
+      </c>
+      <c r="C763" t="s">
+        <v>35</v>
+      </c>
+      <c r="D763" s="121">
+        <v>16</v>
+      </c>
+      <c r="E763" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H763">
+        <v>129</v>
+      </c>
+      <c r="I763">
+        <v>525</v>
+      </c>
+      <c r="N763">
+        <v>129</v>
+      </c>
+      <c r="O763">
+        <v>0</v>
+      </c>
+      <c r="P763">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q763" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A764" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B764" s="9">
+        <v>1721</v>
+      </c>
+      <c r="C764" t="s">
+        <v>35</v>
+      </c>
+      <c r="D764" s="121">
+        <v>17</v>
+      </c>
+      <c r="E764" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H764">
+        <v>132</v>
+      </c>
+      <c r="I764">
+        <v>525</v>
+      </c>
+      <c r="N764">
+        <v>134</v>
+      </c>
+      <c r="O764">
+        <v>2</v>
+      </c>
+      <c r="P764">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q764" s="121">
+        <v>3.8095238095238093</v>
+      </c>
+    </row>
+    <row r="765" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A765" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B765" s="9">
+        <v>1751</v>
+      </c>
+      <c r="C765" t="s">
+        <v>35</v>
+      </c>
+      <c r="D765" s="121">
+        <v>18</v>
+      </c>
+      <c r="E765" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H765">
+        <v>130</v>
+      </c>
+      <c r="I765">
+        <v>525</v>
+      </c>
+      <c r="N765">
+        <v>135</v>
+      </c>
+      <c r="O765">
+        <v>5</v>
+      </c>
+      <c r="P765">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q765" s="121">
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="766" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A766" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B766" s="9">
+        <v>1821</v>
+      </c>
+      <c r="C766" t="s">
+        <v>35</v>
+      </c>
+      <c r="D766" s="121">
+        <v>19</v>
+      </c>
+      <c r="E766" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H766">
+        <v>128</v>
+      </c>
+      <c r="I766">
+        <v>525</v>
+      </c>
+      <c r="N766">
+        <v>135</v>
+      </c>
+      <c r="O766">
+        <v>7</v>
+      </c>
+      <c r="P766">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q766" s="121">
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="767" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A767" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B767" s="9">
+        <v>1851</v>
+      </c>
+      <c r="C767" t="s">
+        <v>35</v>
+      </c>
+      <c r="D767" s="121">
+        <v>20</v>
+      </c>
+      <c r="E767" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H767">
+        <v>131</v>
+      </c>
+      <c r="I767">
+        <v>525</v>
+      </c>
+      <c r="N767">
+        <v>137</v>
+      </c>
+      <c r="O767">
+        <v>6</v>
+      </c>
+      <c r="P767">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q767" s="121">
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="768" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A768" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B768" s="9">
+        <v>1921</v>
+      </c>
+      <c r="C768" t="s">
+        <v>35</v>
+      </c>
+      <c r="D768" s="121">
+        <v>21</v>
+      </c>
+      <c r="E768" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H768">
+        <v>128</v>
+      </c>
+      <c r="I768">
+        <v>525</v>
+      </c>
+      <c r="N768">
+        <v>134</v>
+      </c>
+      <c r="O768">
+        <v>6</v>
+      </c>
+      <c r="P768">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q768" s="121">
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="769" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A769" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B769" s="9">
+        <v>1951</v>
+      </c>
+      <c r="C769" t="s">
+        <v>35</v>
+      </c>
+      <c r="D769" s="121">
+        <v>22</v>
+      </c>
+      <c r="E769" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H769">
+        <v>131</v>
+      </c>
+      <c r="I769">
+        <v>525</v>
+      </c>
+      <c r="N769">
+        <v>134</v>
+      </c>
+      <c r="O769">
+        <v>3</v>
+      </c>
+      <c r="P769">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q769" s="121">
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="770" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A770" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B770" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C770" t="s">
+        <v>35</v>
+      </c>
+      <c r="D770" s="121">
+        <v>23</v>
+      </c>
+      <c r="E770" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H770">
+        <v>130</v>
+      </c>
+      <c r="I770">
+        <v>525</v>
+      </c>
+      <c r="N770">
+        <v>133</v>
+      </c>
+      <c r="O770">
+        <v>3</v>
+      </c>
+      <c r="P770">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q770" s="121">
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="771" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A771" s="128">
+        <v>41955</v>
+      </c>
+      <c r="B771" s="9">
+        <v>2051</v>
+      </c>
+      <c r="C771" t="s">
+        <v>35</v>
+      </c>
+      <c r="D771" s="121">
+        <v>24</v>
+      </c>
+      <c r="E771" s="148">
+        <v>41967</v>
+      </c>
+      <c r="H771">
+        <v>130</v>
+      </c>
+      <c r="I771">
+        <v>525</v>
+      </c>
+      <c r="N771">
+        <v>134</v>
+      </c>
+      <c r="O771">
+        <v>4</v>
+      </c>
+      <c r="P771">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q771" s="121">
+        <v>7.6190476190476186</v>
+      </c>
+    </row>
+    <row r="772" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A772" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B772" s="9">
+        <v>2210</v>
+      </c>
+      <c r="C772" t="s">
+        <v>35</v>
+      </c>
+      <c r="D772" s="121">
+        <v>1</v>
+      </c>
+      <c r="E772" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H772">
+        <v>131</v>
+      </c>
+      <c r="I772">
+        <v>420</v>
+      </c>
+      <c r="K772">
+        <v>1520</v>
+      </c>
+      <c r="N772">
+        <v>152</v>
+      </c>
+      <c r="O772">
+        <v>21</v>
+      </c>
+      <c r="P772">
+        <v>0.42</v>
+      </c>
+      <c r="Q772" s="121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="773" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A773" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B773" s="9">
+        <v>2240</v>
+      </c>
+      <c r="C773" t="s">
+        <v>35</v>
+      </c>
+      <c r="D773" s="121">
+        <v>2</v>
+      </c>
+      <c r="E773" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H773">
+        <v>128</v>
+      </c>
+      <c r="I773">
+        <v>420</v>
+      </c>
+      <c r="N773">
+        <v>150</v>
+      </c>
+      <c r="O773">
+        <v>22</v>
+      </c>
+      <c r="P773">
+        <v>0.42</v>
+      </c>
+      <c r="Q773" s="121">
+        <v>52.38095238095238</v>
+      </c>
+    </row>
+    <row r="774" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A774" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B774" s="9">
+        <v>2310</v>
+      </c>
+      <c r="C774" t="s">
+        <v>35</v>
+      </c>
+      <c r="D774" s="121">
+        <v>3</v>
+      </c>
+      <c r="E774" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H774">
+        <v>128</v>
+      </c>
+      <c r="I774">
+        <v>420</v>
+      </c>
+      <c r="N774">
+        <v>143</v>
+      </c>
+      <c r="O774">
+        <v>15</v>
+      </c>
+      <c r="P774">
+        <v>0.42</v>
+      </c>
+      <c r="Q774" s="121">
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="775" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A775" s="128">
+        <v>41967</v>
+      </c>
+      <c r="B775" s="9">
+        <v>2340</v>
+      </c>
+      <c r="C775" t="s">
+        <v>35</v>
+      </c>
+      <c r="D775" s="121">
+        <v>4</v>
+      </c>
+      <c r="E775" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H775">
+        <v>131</v>
+      </c>
+      <c r="I775">
+        <v>420</v>
+      </c>
+      <c r="N775">
+        <v>143</v>
+      </c>
+      <c r="O775">
+        <v>12</v>
+      </c>
+      <c r="P775">
+        <v>0.42</v>
+      </c>
+      <c r="Q775" s="121">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="776" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A776" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B776" s="9">
+        <v>10</v>
+      </c>
+      <c r="C776" t="s">
+        <v>35</v>
+      </c>
+      <c r="D776" s="121">
+        <v>5</v>
+      </c>
+      <c r="E776" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H776">
+        <v>128</v>
+      </c>
+      <c r="I776">
+        <v>350</v>
+      </c>
+      <c r="N776">
+        <v>137</v>
+      </c>
+      <c r="O776">
+        <v>9</v>
+      </c>
+      <c r="P776">
+        <v>0.35</v>
+      </c>
+      <c r="Q776" s="121">
+        <v>25.714285714285715</v>
+      </c>
+    </row>
+    <row r="777" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A777" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B777" s="9">
+        <v>40</v>
+      </c>
+      <c r="C777" t="s">
+        <v>35</v>
+      </c>
+      <c r="D777" s="121">
+        <v>6</v>
+      </c>
+      <c r="E777" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H777">
+        <v>128</v>
+      </c>
+      <c r="I777">
+        <v>420</v>
+      </c>
+      <c r="N777">
+        <v>140</v>
+      </c>
+      <c r="O777">
+        <v>12</v>
+      </c>
+      <c r="P777">
+        <v>0.42</v>
+      </c>
+      <c r="Q777" s="121">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="778" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A778" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B778" s="9">
+        <v>1030</v>
+      </c>
+      <c r="C778" t="s">
+        <v>35</v>
+      </c>
+      <c r="D778" s="121">
+        <v>1</v>
+      </c>
+      <c r="E778" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H778">
+        <v>130</v>
+      </c>
+      <c r="I778">
+        <v>525</v>
+      </c>
+      <c r="N778">
+        <v>131</v>
+      </c>
+      <c r="O778">
+        <v>1</v>
+      </c>
+      <c r="P778">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q778" s="121">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="779" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A779" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B779" s="9">
+        <v>1150</v>
+      </c>
+      <c r="C779" t="s">
+        <v>18</v>
+      </c>
+      <c r="D779" s="121">
+        <v>4</v>
+      </c>
+      <c r="E779" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H779">
+        <v>131</v>
+      </c>
+      <c r="I779">
+        <v>525</v>
+      </c>
+      <c r="N779">
+        <v>132</v>
+      </c>
+      <c r="O779">
+        <v>1</v>
+      </c>
+      <c r="P779">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q779" s="121">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="780" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A780" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B780" s="9">
+        <v>1045</v>
+      </c>
+      <c r="C780" t="s">
+        <v>65</v>
+      </c>
+      <c r="D780" s="121">
+        <v>4</v>
+      </c>
+      <c r="E780" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H780">
+        <v>131</v>
+      </c>
+      <c r="I780">
+        <v>500</v>
+      </c>
+      <c r="N780">
+        <v>131</v>
+      </c>
+      <c r="O780">
+        <v>0</v>
+      </c>
+      <c r="P780">
+        <v>0.5</v>
+      </c>
+      <c r="Q780" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A781" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B781" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C781" t="s">
+        <v>18</v>
+      </c>
+      <c r="D781" s="121">
+        <v>2</v>
+      </c>
+      <c r="E781" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H781">
+        <v>133</v>
+      </c>
+      <c r="I781">
+        <v>525</v>
+      </c>
+      <c r="N781">
+        <v>133</v>
+      </c>
+      <c r="O781">
+        <v>0</v>
+      </c>
+      <c r="P781">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q781" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A782" s="128">
+        <v>41968</v>
+      </c>
+      <c r="B782" s="9">
+        <v>930</v>
+      </c>
+      <c r="C782" t="s">
+        <v>18</v>
+      </c>
+      <c r="D782" s="121">
+        <v>1</v>
+      </c>
+      <c r="E782" s="148">
+        <v>41968</v>
+      </c>
+      <c r="H782">
+        <v>131</v>
+      </c>
+      <c r="I782">
+        <v>500</v>
+      </c>
+      <c r="K782">
+        <v>1630</v>
+      </c>
+      <c r="N782">
+        <v>132</v>
+      </c>
+      <c r="O782">
+        <v>1</v>
+      </c>
+      <c r="P782">
+        <v>0.5</v>
+      </c>
+      <c r="Q782" s="121">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SSC/SSC_grab_samples.xlsx
+++ b/Data/SSC/SSC_grab_samples.xlsx
@@ -47146,10 +47146,10 @@
   <dimension ref="A1:R781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E259" sqref="E259"/>
+      <selection pane="bottomRight" activeCell="B698" sqref="B698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73607,7 +73607,7 @@
         <v>41946</v>
       </c>
       <c r="B697" s="127">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="C697" t="s">
         <v>18</v>
